--- a/pred_ohlcv/54_21/2020-01-11 ENJ ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-11 ENJ ohlcv.xlsx
@@ -1354,7 +1354,7 @@
         <v>-128448.1759260031</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-133248.1759260031</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-133056.8243260031</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-133231.2943260031</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-136751.9389260031</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-169415.5806260031</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-195185.5806260031</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-236203.8949260031</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-246010.2049260031</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-246010.2049260031</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-269420.3824260031</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-269003.5764260031</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-298182.0074260031</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-298132.0074260031</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-649984.595026003</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-649575.9842260029</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-649575.9842260029</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-651269.6633260029</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-642936.8290260029</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-642936.8290260029</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-501206.178526003</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-501206.178526003</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-492141.096626003</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-492141.096626003</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-492160.585126003</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-11 ENJ ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-11 ENJ ohlcv.xlsx
@@ -1328,7 +1328,7 @@
         <v>-108048.9823260031</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-128448.1759260031</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-133248.1759260031</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-133056.8243260031</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-133231.2943260031</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-136751.9389260031</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-139020.3851260031</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-169415.5806260031</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-169415.5806260031</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-195185.5806260031</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-233365.8845260031</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-233756.1153260031</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-236203.8949260031</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-246010.2049260031</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-269420.3824260031</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-269003.5764260031</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-298182.0074260031</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-298132.0074260031</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-649984.595026003</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-649575.9842260029</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-649575.9842260029</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-651269.6633260029</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-642936.8290260029</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-642936.8290260029</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-608361.8286260029</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-673352.6471260029</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-673164.996126003</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-673164.996126003</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-682946.542726003</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-673624.542726003</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-673624.542726003</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-573307.938326003</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-501206.178526003</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-501206.178526003</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-492141.096626003</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-492141.096626003</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-492160.585126003</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
